--- a/docss/carto/country/E_neuron.xlsx
+++ b/docss/carto/country/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\documents\carto\country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos de Elena\Documents\GitHub\ic3design\docss\carto\country\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,16 +602,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,16 +622,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -682,16 +682,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F9" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,16 +702,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,16 +742,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F12" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,16 +802,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,16 +842,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E17" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,16 +862,16 @@
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E18" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,16 +882,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D19" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,16 +1002,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,16 +1142,16 @@
         <v>34</v>
       </c>
       <c r="C32" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D32" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E32" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F32" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,16 +1162,16 @@
         <v>40</v>
       </c>
       <c r="C33" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E33" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F33" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,16 +1182,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D34" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E34" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F34" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,16 +1202,16 @@
         <v>29</v>
       </c>
       <c r="C35" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F35" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,16 +1222,16 @@
         <v>30</v>
       </c>
       <c r="C36" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E36" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,16 +1242,16 @@
         <v>31</v>
       </c>
       <c r="C37" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E37" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F37" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,16 +1262,16 @@
         <v>32</v>
       </c>
       <c r="C38" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F38" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,16 +1282,16 @@
         <v>33</v>
       </c>
       <c r="C39" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E39" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F39" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1302,16 +1302,16 @@
         <v>35</v>
       </c>
       <c r="C40" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D40" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E40" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F40" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1322,16 +1322,16 @@
         <v>36</v>
       </c>
       <c r="C41" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F41" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1343,16 +1343,16 @@
         <v>37</v>
       </c>
       <c r="C42" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1364,16 +1364,16 @@
         <v>39</v>
       </c>
       <c r="C43" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D43" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1385,16 +1385,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="D44" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="F44" s="2">
-        <v>-99</v>
+        <v>99</v>
       </c>
       <c r="G44" s="1"/>
     </row>
